--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Tests_DM/dm_completo_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Tests_DM/dm_completo_Lineal_No_Estacionario_ARIMA.xlsx
@@ -483,7 +483,7 @@
         <v>-1</v>
       </c>
       <c r="J2">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -538,10 +538,10 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -625,7 +625,7 @@
         <v>-1</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -657,7 +657,7 @@
         <v>-1</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.403188759103614E-12</v>
+        <v>8.408603595633224E-06</v>
       </c>
       <c r="D2">
-        <v>1.359534707034982E-11</v>
+        <v>1.31779794423359E-05</v>
       </c>
       <c r="E2">
-        <v>2.997289572093109E-08</v>
+        <v>0.0001865587530940349</v>
       </c>
       <c r="F2">
-        <v>2.382587460658669E-10</v>
+        <v>4.184012974528528E-06</v>
       </c>
       <c r="G2">
-        <v>6.210587599753126E-13</v>
+        <v>4.64420659240794E-06</v>
       </c>
       <c r="H2">
-        <v>1.044053732357497E-12</v>
+        <v>3.202235528076969E-06</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.29857043901427E-08</v>
       </c>
       <c r="J2">
-        <v>0.0001308619161715097</v>
+        <v>0.007038606957391558</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.403188759103614E-12</v>
+        <v>8.408603595633224E-06</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1.635874163907758E-06</v>
       </c>
       <c r="E3">
-        <v>1.461408771774586E-11</v>
+        <v>8.267706480546977E-06</v>
       </c>
       <c r="F3">
-        <v>3.860001207556252E-11</v>
+        <v>1.854678043455849E-05</v>
       </c>
       <c r="G3">
-        <v>4.752616766801054E-08</v>
+        <v>0.0003993917247824275</v>
       </c>
       <c r="H3">
-        <v>4.170709977380227E-08</v>
+        <v>0.0005318933665054981</v>
       </c>
       <c r="I3">
-        <v>0.003567041382199321</v>
+        <v>0.01630194743413038</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.100368569825434E-08</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.359534707034982E-11</v>
+        <v>1.31779794423359E-05</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1.635874163907758E-06</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1.243994462996056E-09</v>
+        <v>1.998764452570967E-05</v>
       </c>
       <c r="F4">
-        <v>2.213085270597048E-10</v>
+        <v>3.03569705202289E-05</v>
       </c>
       <c r="G4">
-        <v>6.518272365640954E-06</v>
+        <v>0.002475749377058856</v>
       </c>
       <c r="H4">
-        <v>5.421333222788149E-06</v>
+        <v>0.002915019399689633</v>
       </c>
       <c r="I4">
-        <v>0.01558945551472624</v>
+        <v>0.04128972146939525</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1.30932399367012E-07</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.997289572093109E-08</v>
+        <v>0.0001865587530940349</v>
       </c>
       <c r="C5">
-        <v>1.461408771774586E-11</v>
+        <v>8.267706480546977E-06</v>
       </c>
       <c r="D5">
-        <v>1.243994462996056E-09</v>
+        <v>1.998764452570967E-05</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>3.825035130855525E-07</v>
+        <v>0.0005143821145749961</v>
       </c>
       <c r="G5">
-        <v>0.4709828617012006</v>
+        <v>0.5936081964043503</v>
       </c>
       <c r="H5">
-        <v>0.7511976601277199</v>
+        <v>0.8180907207846226</v>
       </c>
       <c r="I5">
-        <v>0.9994331543011783</v>
+        <v>0.9995570706161845</v>
       </c>
       <c r="J5">
-        <v>3.377912722868359E-07</v>
+        <v>2.798750032018127E-05</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.382587460658669E-10</v>
+        <v>4.184012974528528E-06</v>
       </c>
       <c r="C6">
-        <v>3.860001207556252E-11</v>
+        <v>1.854678043455849E-05</v>
       </c>
       <c r="D6">
-        <v>2.213085270597048E-10</v>
+        <v>3.03569705202289E-05</v>
       </c>
       <c r="E6">
-        <v>3.825035130855525E-07</v>
+        <v>0.0005143821145749961</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.258637721297418E-11</v>
+        <v>1.194915978008915E-05</v>
       </c>
       <c r="H6">
-        <v>4.05904199141105E-11</v>
+        <v>8.844723792478248E-06</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.845272026290701E-07</v>
       </c>
       <c r="J6">
-        <v>0.001496947192539677</v>
+        <v>0.02157687694398569</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.210587599753126E-13</v>
+        <v>4.64420659240794E-06</v>
       </c>
       <c r="C7">
-        <v>4.752616766801054E-08</v>
+        <v>0.0003993917247824275</v>
       </c>
       <c r="D7">
-        <v>6.518272365640954E-06</v>
+        <v>0.002475749377058856</v>
       </c>
       <c r="E7">
-        <v>0.4709828617012006</v>
+        <v>0.5936081964043503</v>
       </c>
       <c r="F7">
-        <v>2.258637721297418E-11</v>
+        <v>1.194915978008915E-05</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.1843724196930232</v>
+        <v>0.128062116163929</v>
       </c>
       <c r="I7">
-        <v>0.6306163153465516</v>
+        <v>0.6601372073520753</v>
       </c>
       <c r="J7">
-        <v>1.066474752953184E-08</v>
+        <v>0.001732803998047316</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.044053732357497E-12</v>
+        <v>3.202235528076969E-06</v>
       </c>
       <c r="C8">
-        <v>4.170709977380227E-08</v>
+        <v>0.0005318933665054981</v>
       </c>
       <c r="D8">
-        <v>5.421333222788149E-06</v>
+        <v>0.002915019399689633</v>
       </c>
       <c r="E8">
-        <v>0.7511976601277199</v>
+        <v>0.8180907207846226</v>
       </c>
       <c r="F8">
-        <v>4.05904199141105E-11</v>
+        <v>8.844723792478248E-06</v>
       </c>
       <c r="G8">
-        <v>0.1843724196930232</v>
+        <v>0.128062116163929</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.8136399410831499</v>
+        <v>0.8217669694081375</v>
       </c>
       <c r="J8">
-        <v>8.705528407038088E-07</v>
+        <v>0.004353321525517373</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>3.29857043901427E-08</v>
       </c>
       <c r="C9">
-        <v>0.003567041382199321</v>
+        <v>0.01630194743413038</v>
       </c>
       <c r="D9">
-        <v>0.01558945551472624</v>
+        <v>0.04128972146939525</v>
       </c>
       <c r="E9">
-        <v>0.9994331543011783</v>
+        <v>0.9995570706161845</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1.845272026290701E-07</v>
       </c>
       <c r="G9">
-        <v>0.6306163153465516</v>
+        <v>0.6601372073520753</v>
       </c>
       <c r="H9">
-        <v>0.8136399410831499</v>
+        <v>0.8217669694081375</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.007304474987384735</v>
+        <v>0.04649469443111598</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0001308619161715097</v>
+        <v>0.007038606957391558</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>9.100368569825434E-08</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.30932399367012E-07</v>
       </c>
       <c r="E10">
-        <v>3.377912722868359E-07</v>
+        <v>2.798750032018127E-05</v>
       </c>
       <c r="F10">
-        <v>0.001496947192539677</v>
+        <v>0.02157687694398569</v>
       </c>
       <c r="G10">
-        <v>1.066474752953184E-08</v>
+        <v>0.001732803998047316</v>
       </c>
       <c r="H10">
-        <v>8.705528407038088E-07</v>
+        <v>0.004353321525517373</v>
       </c>
       <c r="I10">
-        <v>0.007304474987384735</v>
+        <v>0.04649469443111598</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.196344206770631</v>
+        <v>6.813793025258791</v>
       </c>
       <c r="D2">
-        <v>6.93055557435441</v>
+        <v>6.537516359248388</v>
       </c>
       <c r="E2">
-        <v>5.63463146722462</v>
+        <v>5.022538861161706</v>
       </c>
       <c r="F2">
-        <v>6.472900399259172</v>
+        <v>7.256117192520128</v>
       </c>
       <c r="G2">
-        <v>7.398698522684541</v>
+        <v>7.18893327356635</v>
       </c>
       <c r="H2">
-        <v>7.321553191718261</v>
+        <v>7.430047475841675</v>
       </c>
       <c r="I2">
-        <v>10.66991091472747</v>
+        <v>10.86844846190304</v>
       </c>
       <c r="J2">
-        <v>3.856259235696415</v>
+        <v>3.153776194383034</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-7.196344206770631</v>
+        <v>-6.813793025258791</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-9.07015442233741</v>
+        <v>-7.878453037160982</v>
       </c>
       <c r="E3">
-        <v>-6.919302943924655</v>
+        <v>-6.824309757728702</v>
       </c>
       <c r="F3">
-        <v>-6.766612044631611</v>
+        <v>-6.331545514136495</v>
       </c>
       <c r="G3">
-        <v>-5.54937804537961</v>
+        <v>-4.61693374871366</v>
       </c>
       <c r="H3">
-        <v>-5.573641266550246</v>
+        <v>-4.466878511274134</v>
       </c>
       <c r="I3">
-        <v>-2.928613121682103</v>
+        <v>-2.729039407369889</v>
       </c>
       <c r="J3">
-        <v>-10.94950003451731</v>
+        <v>-10.02112105437275</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-6.93055557435441</v>
+        <v>-6.537516359248388</v>
       </c>
       <c r="C4">
-        <v>9.07015442233741</v>
+        <v>7.878453037160982</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-6.196689976244239</v>
+        <v>-6.286917285092488</v>
       </c>
       <c r="F4">
-        <v>-6.485013951962049</v>
+        <v>-6.040595615681973</v>
       </c>
       <c r="G4">
-        <v>-4.559528983839022</v>
+        <v>-3.679514517577699</v>
       </c>
       <c r="H4">
-        <v>-4.599764770058073</v>
+        <v>-3.59713274322795</v>
       </c>
       <c r="I4">
-        <v>-2.427061534631786</v>
+        <v>-2.24696183624066</v>
       </c>
       <c r="J4">
-        <v>-10.54109570381885</v>
+        <v>-9.730253402761253</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-5.63463146722462</v>
+        <v>-5.022538861161706</v>
       </c>
       <c r="C5">
-        <v>6.919302943924655</v>
+        <v>6.824309757728702</v>
       </c>
       <c r="D5">
-        <v>6.196689976244239</v>
+        <v>6.286917285092488</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-5.149304497740676</v>
+        <v>-4.484345327674603</v>
       </c>
       <c r="G5">
-        <v>0.7214529707157411</v>
+        <v>0.5460780222551406</v>
       </c>
       <c r="H5">
-        <v>0.3172427302210848</v>
+        <v>0.2343698639606305</v>
       </c>
       <c r="I5">
-        <v>0.0007108066755888312</v>
+        <v>0.0005651232292951768</v>
       </c>
       <c r="J5">
-        <v>-5.173867685866095</v>
+        <v>-6.088110079044103</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-6.472900399259172</v>
+        <v>-7.256117192520128</v>
       </c>
       <c r="C6">
-        <v>6.766612044631611</v>
+        <v>6.331545514136495</v>
       </c>
       <c r="D6">
-        <v>6.485013951962049</v>
+        <v>6.040595615681973</v>
       </c>
       <c r="E6">
-        <v>5.149304497740676</v>
+        <v>4.484345327674603</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.851191138708015</v>
+        <v>6.597167248742768</v>
       </c>
       <c r="H6">
-        <v>6.75863386246794</v>
+        <v>6.782378503854368</v>
       </c>
       <c r="I6">
-        <v>9.92700255146112</v>
+        <v>9.461834552365913</v>
       </c>
       <c r="J6">
-        <v>3.193738205790846</v>
+        <v>2.585513787940318</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-7.398698522684541</v>
+        <v>-7.18893327356635</v>
       </c>
       <c r="C7">
-        <v>5.54937804537961</v>
+        <v>4.61693374871366</v>
       </c>
       <c r="D7">
-        <v>4.559528983839022</v>
+        <v>3.679514517577699</v>
       </c>
       <c r="E7">
-        <v>-0.7214529707157411</v>
+        <v>-0.5460780222551406</v>
       </c>
       <c r="F7">
-        <v>-6.851191138708015</v>
+        <v>-6.597167248742768</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-1.329328396075761</v>
+        <v>-1.617546462906271</v>
       </c>
       <c r="I7">
-        <v>-0.4811687144761991</v>
+        <v>-0.4492363056706506</v>
       </c>
       <c r="J7">
-        <v>-5.821999172434812</v>
+        <v>-3.860071073428863</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-7.321553191718261</v>
+        <v>-7.430047475841675</v>
       </c>
       <c r="C8">
-        <v>5.573641266550246</v>
+        <v>4.466878511274134</v>
       </c>
       <c r="D8">
-        <v>4.599764770058073</v>
+        <v>3.59713274322795</v>
       </c>
       <c r="E8">
-        <v>-0.3172427302210848</v>
+        <v>-0.2343698639606305</v>
       </c>
       <c r="F8">
-        <v>-6.75863386246794</v>
+        <v>-6.782378503854368</v>
       </c>
       <c r="G8">
-        <v>1.329328396075761</v>
+        <v>1.617546462906271</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.2358628095275244</v>
+        <v>-0.2295425250708586</v>
       </c>
       <c r="J8">
-        <v>-4.984276517132425</v>
+        <v>-3.395309374597946</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-10.66991091472747</v>
+        <v>-10.86844846190304</v>
       </c>
       <c r="C9">
-        <v>2.928613121682103</v>
+        <v>2.729039407369889</v>
       </c>
       <c r="D9">
-        <v>2.427061534631786</v>
+        <v>2.24696183624066</v>
       </c>
       <c r="E9">
-        <v>-0.0007108066755888312</v>
+        <v>-0.0005651232292951768</v>
       </c>
       <c r="F9">
-        <v>-9.92700255146112</v>
+        <v>-9.461834552365913</v>
       </c>
       <c r="G9">
-        <v>0.4811687144761991</v>
+        <v>0.4492363056706506</v>
       </c>
       <c r="H9">
-        <v>0.2358628095275244</v>
+        <v>0.2295425250708586</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-2.694156817096154</v>
+        <v>-2.183738900754142</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-3.856259235696415</v>
+        <v>-3.153776194383034</v>
       </c>
       <c r="C10">
-        <v>10.94950003451731</v>
+        <v>10.02112105437275</v>
       </c>
       <c r="D10">
-        <v>10.54109570381885</v>
+        <v>9.730253402761253</v>
       </c>
       <c r="E10">
-        <v>5.173867685866095</v>
+        <v>6.088110079044103</v>
       </c>
       <c r="F10">
-        <v>-3.193738205790846</v>
+        <v>-2.585513787940318</v>
       </c>
       <c r="G10">
-        <v>5.821999172434812</v>
+        <v>3.860071073428863</v>
       </c>
       <c r="H10">
-        <v>4.984276517132425</v>
+        <v>3.395309374597946</v>
       </c>
       <c r="I10">
-        <v>2.694156817096154</v>
+        <v>2.183738900754142</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1460,16 +1460,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>0.9556980709736358</v>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1492,27 +1492,27 @@
         <v>37.5</v>
       </c>
       <c r="F4">
-        <v>2.579992484281206</v>
+        <v>2.698648693965452</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="F5">
-        <v>2.698648693965452</v>
+        <v>2.698185999935002</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1520,16 +1520,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="F6">
         <v>2.449251213069206</v>
@@ -1537,22 +1537,22 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>25</v>
       </c>
       <c r="F7">
-        <v>2.698185999935002</v>
+        <v>2.579992484281206</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1577,42 +1577,42 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>4.570246739591618</v>
+        <v>7.880117721526667</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>7.880117721526667</v>
+        <v>4.570246739591618</v>
       </c>
     </row>
   </sheetData>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Tests_DM/dm_completo_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_20pct/Tests_DM/dm_completo_Lineal_No_Estacionario_ARIMA.xlsx
@@ -483,7 +483,7 @@
         <v>-1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -532,16 +532,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -625,10 +625,10 @@
         <v>-1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -657,10 +657,10 @@
         <v>-1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>8.408603595633224E-06</v>
+        <v>4.529629707406002E-05</v>
       </c>
       <c r="D2">
-        <v>1.31779794423359E-05</v>
+        <v>6.830931124901518E-05</v>
       </c>
       <c r="E2">
-        <v>0.0001865587530940349</v>
+        <v>6.883364843446316E-05</v>
       </c>
       <c r="F2">
-        <v>4.184012974528528E-06</v>
+        <v>2.358543815805803E-06</v>
       </c>
       <c r="G2">
-        <v>4.64420659240794E-06</v>
+        <v>4.956741243922203E-05</v>
       </c>
       <c r="H2">
-        <v>3.202235528076969E-06</v>
+        <v>4.890373878474463E-05</v>
       </c>
       <c r="I2">
-        <v>3.29857043901427E-08</v>
+        <v>9.147397276088043E-06</v>
       </c>
       <c r="J2">
-        <v>0.007038606957391558</v>
+        <v>0.0005675802682685305</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.408603595633224E-06</v>
+        <v>4.529629707406002E-05</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1.635874163907758E-06</v>
+        <v>1.11832765270492E-11</v>
       </c>
       <c r="E3">
-        <v>8.267706480546977E-06</v>
+        <v>7.206235608236966E-12</v>
       </c>
       <c r="F3">
-        <v>1.854678043455849E-05</v>
+        <v>7.206533452608355E-05</v>
       </c>
       <c r="G3">
-        <v>0.0003993917247824275</v>
+        <v>9.369407488413195E-05</v>
       </c>
       <c r="H3">
-        <v>0.0005318933665054981</v>
+        <v>7.998634537953464E-05</v>
       </c>
       <c r="I3">
-        <v>0.01630194743413038</v>
+        <v>0.002149348262913353</v>
       </c>
       <c r="J3">
-        <v>9.100368569825434E-08</v>
+        <v>2.211885865577301E-07</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.31779794423359E-05</v>
+        <v>6.830931124901518E-05</v>
       </c>
       <c r="C4">
-        <v>1.635874163907758E-06</v>
+        <v>1.11832765270492E-11</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1.998764452570967E-05</v>
+        <v>0.1648394196284826</v>
       </c>
       <c r="F4">
-        <v>3.03569705202289E-05</v>
+        <v>0.0001136717234655471</v>
       </c>
       <c r="G4">
-        <v>0.002475749377058856</v>
+        <v>0.0008284835946859026</v>
       </c>
       <c r="H4">
-        <v>0.002915019399689633</v>
+        <v>0.0006373103283883186</v>
       </c>
       <c r="I4">
-        <v>0.04128972146939525</v>
+        <v>0.007389365861486308</v>
       </c>
       <c r="J4">
-        <v>1.30932399367012E-07</v>
+        <v>9.379096819195354E-07</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0001865587530940349</v>
+        <v>6.883364843446316E-05</v>
       </c>
       <c r="C5">
-        <v>8.267706480546977E-06</v>
+        <v>7.206235608236966E-12</v>
       </c>
       <c r="D5">
-        <v>1.998764452570967E-05</v>
+        <v>0.1648394196284826</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0005143821145749961</v>
+        <v>0.0001145683725534141</v>
       </c>
       <c r="G5">
-        <v>0.5936081964043503</v>
+        <v>0.0008624616854500111</v>
       </c>
       <c r="H5">
-        <v>0.8180907207846226</v>
+        <v>0.0006661058155847943</v>
       </c>
       <c r="I5">
-        <v>0.9995570706161845</v>
+        <v>0.007499468492323302</v>
       </c>
       <c r="J5">
-        <v>2.798750032018127E-05</v>
+        <v>9.663287305894386E-07</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.184012974528528E-06</v>
+        <v>2.358543815805803E-06</v>
       </c>
       <c r="C6">
-        <v>1.854678043455849E-05</v>
+        <v>7.206533452608355E-05</v>
       </c>
       <c r="D6">
-        <v>3.03569705202289E-05</v>
+        <v>0.0001136717234655471</v>
       </c>
       <c r="E6">
-        <v>0.0005143821145749961</v>
+        <v>0.0001145683725534141</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.194915978008915E-05</v>
+        <v>9.495022722494362E-05</v>
       </c>
       <c r="H6">
-        <v>8.844723792478248E-06</v>
+        <v>9.453868787878683E-05</v>
       </c>
       <c r="I6">
-        <v>1.845272026290701E-07</v>
+        <v>1.506071153922761E-05</v>
       </c>
       <c r="J6">
-        <v>0.02157687694398569</v>
+        <v>0.001416416093905193</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.64420659240794E-06</v>
+        <v>4.956741243922203E-05</v>
       </c>
       <c r="C7">
-        <v>0.0003993917247824275</v>
+        <v>9.369407488413195E-05</v>
       </c>
       <c r="D7">
-        <v>0.002475749377058856</v>
+        <v>0.0008284835946859026</v>
       </c>
       <c r="E7">
-        <v>0.5936081964043503</v>
+        <v>0.0008624616854500111</v>
       </c>
       <c r="F7">
-        <v>1.194915978008915E-05</v>
+        <v>9.495022722494362E-05</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.128062116163929</v>
+        <v>0.2809647578757895</v>
       </c>
       <c r="I7">
-        <v>0.6601372073520753</v>
+        <v>0.156398667948249</v>
       </c>
       <c r="J7">
-        <v>0.001732803998047316</v>
+        <v>3.371714433875184E-06</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.202235528076969E-06</v>
+        <v>4.890373878474463E-05</v>
       </c>
       <c r="C8">
-        <v>0.0005318933665054981</v>
+        <v>7.998634537953464E-05</v>
       </c>
       <c r="D8">
-        <v>0.002915019399689633</v>
+        <v>0.0006373103283883186</v>
       </c>
       <c r="E8">
-        <v>0.8180907207846226</v>
+        <v>0.0006661058155847943</v>
       </c>
       <c r="F8">
-        <v>8.844723792478248E-06</v>
+        <v>9.453868787878683E-05</v>
       </c>
       <c r="G8">
-        <v>0.128062116163929</v>
+        <v>0.2809647578757895</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.8217669694081375</v>
+        <v>0.2146575528721757</v>
       </c>
       <c r="J8">
-        <v>0.004353321525517373</v>
+        <v>4.396440842491245E-06</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.29857043901427E-08</v>
+        <v>9.147397276088043E-06</v>
       </c>
       <c r="C9">
-        <v>0.01630194743413038</v>
+        <v>0.002149348262913353</v>
       </c>
       <c r="D9">
-        <v>0.04128972146939525</v>
+        <v>0.007389365861486308</v>
       </c>
       <c r="E9">
-        <v>0.9995570706161845</v>
+        <v>0.007499468492323302</v>
       </c>
       <c r="F9">
-        <v>1.845272026290701E-07</v>
+        <v>1.506071153922761E-05</v>
       </c>
       <c r="G9">
-        <v>0.6601372073520753</v>
+        <v>0.156398667948249</v>
       </c>
       <c r="H9">
-        <v>0.8217669694081375</v>
+        <v>0.2146575528721757</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.04649469443111598</v>
+        <v>0.06023986944666015</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.007038606957391558</v>
+        <v>0.0005675802682685305</v>
       </c>
       <c r="C10">
-        <v>9.100368569825434E-08</v>
+        <v>2.211885865577301E-07</v>
       </c>
       <c r="D10">
-        <v>1.30932399367012E-07</v>
+        <v>9.379096819195354E-07</v>
       </c>
       <c r="E10">
-        <v>2.798750032018127E-05</v>
+        <v>9.663287305894386E-07</v>
       </c>
       <c r="F10">
-        <v>0.02157687694398569</v>
+        <v>0.001416416093905193</v>
       </c>
       <c r="G10">
-        <v>0.001732803998047316</v>
+        <v>3.371714433875184E-06</v>
       </c>
       <c r="H10">
-        <v>0.004353321525517373</v>
+        <v>4.396440842491245E-06</v>
       </c>
       <c r="I10">
-        <v>0.04649469443111598</v>
+        <v>0.06023986944666015</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>6.813793025258791</v>
+        <v>5.062448683378521</v>
       </c>
       <c r="D2">
-        <v>6.537516359248388</v>
+        <v>4.892873471211569</v>
       </c>
       <c r="E2">
-        <v>5.022538861161706</v>
+        <v>4.88972364946193</v>
       </c>
       <c r="F2">
-        <v>7.256117192520128</v>
+        <v>6.313695844723404</v>
       </c>
       <c r="G2">
-        <v>7.18893327356635</v>
+        <v>5.025192372310034</v>
       </c>
       <c r="H2">
-        <v>7.430047475841675</v>
+        <v>5.030763382787764</v>
       </c>
       <c r="I2">
-        <v>10.86844846190304</v>
+        <v>5.731585858231914</v>
       </c>
       <c r="J2">
-        <v>3.153776194383034</v>
+        <v>4.024928406737902</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-6.813793025258791</v>
+        <v>-5.062448683378521</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-7.878453037160982</v>
+        <v>-12.8125591597333</v>
       </c>
       <c r="E3">
-        <v>-6.824309757728702</v>
+        <v>-13.10375183709779</v>
       </c>
       <c r="F3">
-        <v>-6.331545514136495</v>
+        <v>-4.870828955551691</v>
       </c>
       <c r="G3">
-        <v>-4.61693374871366</v>
+        <v>-4.762880180933726</v>
       </c>
       <c r="H3">
-        <v>-4.466878511274134</v>
+        <v>-4.827910699833867</v>
       </c>
       <c r="I3">
-        <v>-2.729039407369889</v>
+        <v>-3.474957995602146</v>
       </c>
       <c r="J3">
-        <v>-10.02112105437275</v>
+        <v>-7.376004786787559</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-6.537516359248388</v>
+        <v>-4.892873471211569</v>
       </c>
       <c r="C4">
-        <v>7.878453037160982</v>
+        <v>12.8125591597333</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-6.286917285092488</v>
+        <v>-1.436819702817036</v>
       </c>
       <c r="F4">
-        <v>-6.040595615681973</v>
+        <v>-4.683519414804878</v>
       </c>
       <c r="G4">
-        <v>-3.679514517577699</v>
+        <v>-3.869604694864273</v>
       </c>
       <c r="H4">
-        <v>-3.59713274322795</v>
+        <v>-3.977389748126797</v>
       </c>
       <c r="I4">
-        <v>-2.24696183624066</v>
+        <v>-2.950787625880888</v>
       </c>
       <c r="J4">
-        <v>-9.730253402761253</v>
+        <v>-6.719918375311194</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-5.022538861161706</v>
+        <v>-4.88972364946193</v>
       </c>
       <c r="C5">
-        <v>6.824309757728702</v>
+        <v>13.10375183709779</v>
       </c>
       <c r="D5">
-        <v>6.286917285092488</v>
+        <v>1.436819702817036</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-4.484345327674603</v>
+        <v>-4.680295378078855</v>
       </c>
       <c r="G5">
-        <v>0.5460780222551406</v>
+        <v>-3.853067990382378</v>
       </c>
       <c r="H5">
-        <v>0.2343698639606305</v>
+        <v>-3.959249425391778</v>
       </c>
       <c r="I5">
-        <v>0.0005651232292951768</v>
+        <v>-2.944374002098761</v>
       </c>
       <c r="J5">
-        <v>-6.088110079044103</v>
+        <v>-6.706624476647998</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-7.256117192520128</v>
+        <v>-6.313695844723404</v>
       </c>
       <c r="C6">
-        <v>6.331545514136495</v>
+        <v>4.870828955551691</v>
       </c>
       <c r="D6">
-        <v>6.040595615681973</v>
+        <v>4.683519414804878</v>
       </c>
       <c r="E6">
-        <v>4.484345327674603</v>
+        <v>4.680295378078855</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>6.597167248742768</v>
+        <v>4.757408482397737</v>
       </c>
       <c r="H6">
-        <v>6.782378503854368</v>
+        <v>4.759193042955567</v>
       </c>
       <c r="I6">
-        <v>9.461834552365913</v>
+        <v>5.521247822383807</v>
       </c>
       <c r="J6">
-        <v>2.585513787940318</v>
+        <v>3.648309986219649</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-7.18893327356635</v>
+        <v>-5.025192372310034</v>
       </c>
       <c r="C7">
-        <v>4.61693374871366</v>
+        <v>4.762880180933726</v>
       </c>
       <c r="D7">
-        <v>3.679514517577699</v>
+        <v>3.869604694864273</v>
       </c>
       <c r="E7">
-        <v>-0.5460780222551406</v>
+        <v>3.853067990382378</v>
       </c>
       <c r="F7">
-        <v>-6.597167248742768</v>
+        <v>-4.757408482397737</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-1.617546462906271</v>
+        <v>-1.105315269806808</v>
       </c>
       <c r="I7">
-        <v>-0.4492363056706506</v>
+        <v>-1.467474578358698</v>
       </c>
       <c r="J7">
-        <v>-3.860071073428863</v>
+        <v>-6.158600707631145</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-7.430047475841675</v>
+        <v>-5.030763382787764</v>
       </c>
       <c r="C8">
-        <v>4.466878511274134</v>
+        <v>4.827910699833867</v>
       </c>
       <c r="D8">
-        <v>3.59713274322795</v>
+        <v>3.977389748126797</v>
       </c>
       <c r="E8">
-        <v>-0.2343698639606305</v>
+        <v>3.959249425391778</v>
       </c>
       <c r="F8">
-        <v>-6.782378503854368</v>
+        <v>-4.759193042955567</v>
       </c>
       <c r="G8">
-        <v>1.617546462906271</v>
+        <v>1.105315269806808</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.2295425250708586</v>
+        <v>-1.277746907089067</v>
       </c>
       <c r="J8">
-        <v>-3.395309374597946</v>
+        <v>-6.044213011115611</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-10.86844846190304</v>
+        <v>-5.731585858231914</v>
       </c>
       <c r="C9">
-        <v>2.729039407369889</v>
+        <v>3.474957995602146</v>
       </c>
       <c r="D9">
-        <v>2.24696183624066</v>
+        <v>2.950787625880888</v>
       </c>
       <c r="E9">
-        <v>-0.0005651232292951768</v>
+        <v>2.944374002098761</v>
       </c>
       <c r="F9">
-        <v>-9.461834552365913</v>
+        <v>-5.521247822383807</v>
       </c>
       <c r="G9">
-        <v>0.4492363056706506</v>
+        <v>1.467474578358698</v>
       </c>
       <c r="H9">
-        <v>0.2295425250708586</v>
+        <v>1.277746907089067</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-2.183738900754142</v>
+        <v>-1.980899748804574</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-3.153776194383034</v>
+        <v>-4.024928406737902</v>
       </c>
       <c r="C10">
-        <v>10.02112105437275</v>
+        <v>7.376004786787559</v>
       </c>
       <c r="D10">
-        <v>9.730253402761253</v>
+        <v>6.719918375311194</v>
       </c>
       <c r="E10">
-        <v>6.088110079044103</v>
+        <v>6.706624476647998</v>
       </c>
       <c r="F10">
-        <v>-2.585513787940318</v>
+        <v>-3.648309986219649</v>
       </c>
       <c r="G10">
-        <v>3.860071073428863</v>
+        <v>6.158600707631145</v>
       </c>
       <c r="H10">
-        <v>3.395309374597946</v>
+        <v>6.044213011115611</v>
       </c>
       <c r="I10">
-        <v>2.183738900754142</v>
+        <v>1.980899748804574</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1452,67 +1452,67 @@
         <v>87.5</v>
       </c>
       <c r="F2">
-        <v>0.5453535474425103</v>
+        <v>0.5459255108496166</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
       <c r="E3">
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="F3">
-        <v>0.9556980709736358</v>
+        <v>1.045642245849395</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
       <c r="E4">
-        <v>37.5</v>
+        <v>62.5</v>
       </c>
       <c r="F4">
-        <v>2.698648693965452</v>
+        <v>1.041989089094431</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
       <c r="E5">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="F5">
-        <v>2.698185999935002</v>
+        <v>2.722177374476466</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1520,39 +1520,39 @@
         <v>5</v>
       </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
       <c r="E6">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="F6">
-        <v>2.449251213069206</v>
+        <v>2.60546433418054</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>25</v>
       </c>
       <c r="F7">
-        <v>2.579992484281206</v>
+        <v>3.28754610545829</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1572,47 +1572,47 @@
         <v>12.5</v>
       </c>
       <c r="F8">
-        <v>7.29228677193038</v>
+        <v>9.920546923731811</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="F9">
-        <v>7.880117721526667</v>
+        <v>4.336191070405466</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
       <c r="D10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.570246739591618</v>
+        <v>11.05957333201351</v>
       </c>
     </row>
   </sheetData>
